--- a/Project-KTXForecasting/Result/20250110_KCI/Forecasting_호남선_FUTR8+LAG0.xlsx
+++ b/Project-KTXForecasting/Result/20250110_KCI/Forecasting_호남선_FUTR8+LAG0.xlsx
@@ -38,22 +38,22 @@
     <t>MedAPE</t>
   </si>
   <si>
+    <t>GRU</t>
+  </si>
+  <si>
+    <t>TCN</t>
+  </si>
+  <si>
     <t>LSTM</t>
+  </si>
+  <si>
+    <t>DilatedRNN</t>
   </si>
   <si>
     <t>XGBoost</t>
   </si>
   <si>
-    <t>TCN</t>
-  </si>
-  <si>
-    <t>DilatedRNN</t>
-  </si>
-  <si>
     <t>RNN</t>
-  </si>
-  <si>
-    <t>LightGBM</t>
   </si>
   <si>
     <t>RandomForest</t>
@@ -62,13 +62,13 @@
     <t>CatBoost</t>
   </si>
   <si>
-    <t>GRU</t>
+    <t>LightGBM</t>
+  </si>
+  <si>
+    <t>NBEATSx</t>
   </si>
   <si>
     <t>NHITS</t>
-  </si>
-  <si>
-    <t>NBEATSx</t>
   </si>
   <si>
     <t>TiDE</t>
@@ -481,25 +481,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>984209713.9423828</v>
+        <v>575906240.0992838</v>
       </c>
       <c r="C2">
-        <v>31372.11682278362</v>
+        <v>23998.04658923896</v>
       </c>
       <c r="D2">
-        <v>0.0009754039211289857</v>
+        <v>0.0005441250477438068</v>
       </c>
       <c r="E2">
-        <v>28730.859375</v>
+        <v>18496.53645833333</v>
       </c>
       <c r="F2">
-        <v>0.02837061719645674</v>
+        <v>0.01801270237476925</v>
       </c>
       <c r="G2">
-        <v>26223.34375</v>
+        <v>12470.34375</v>
       </c>
       <c r="H2">
-        <v>0.0253134866211776</v>
+        <v>0.01269588948357076</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -507,25 +507,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1228598493.425781</v>
+        <v>382001384.2008464</v>
       </c>
       <c r="C3">
-        <v>35051.36935164989</v>
+        <v>19544.85569659818</v>
       </c>
       <c r="D3">
-        <v>0.001156394206059816</v>
+        <v>0.0003644354281139835</v>
       </c>
       <c r="E3">
-        <v>32599.95833333333</v>
+        <v>16259.43229166667</v>
       </c>
       <c r="F3">
-        <v>0.03183184618944773</v>
+        <v>0.01585479507166821</v>
       </c>
       <c r="G3">
-        <v>30801</v>
+        <v>16945.9375</v>
       </c>
       <c r="H3">
-        <v>0.03025636499060178</v>
+        <v>0.01683705345199081</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -533,25 +533,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1473677400.270833</v>
+        <v>579856682.030599</v>
       </c>
       <c r="C4">
-        <v>38388.50609584636</v>
+        <v>24080.21349636666</v>
       </c>
       <c r="D4">
-        <v>0.001446245582118446</v>
+        <v>0.0005428981691173636</v>
       </c>
       <c r="E4">
-        <v>33202.22916666666</v>
+        <v>20326.13541666667</v>
       </c>
       <c r="F4">
-        <v>0.0328307887565406</v>
+        <v>0.01974253870609155</v>
       </c>
       <c r="G4">
-        <v>31841.9375</v>
+        <v>16273.34375</v>
       </c>
       <c r="H4">
-        <v>0.03098869776931507</v>
+        <v>0.01639183318687645</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -559,25 +559,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1635536627.30599</v>
+        <v>889607554.6982422</v>
       </c>
       <c r="C5">
-        <v>40441.76835038237</v>
+        <v>29826.2896569158</v>
       </c>
       <c r="D5">
-        <v>0.001596966232903871</v>
+        <v>0.000875629610475978</v>
       </c>
       <c r="E5">
-        <v>35980.67708333334</v>
+        <v>23127.609375</v>
       </c>
       <c r="F5">
-        <v>0.03543268764031737</v>
+        <v>0.02269556669857297</v>
       </c>
       <c r="G5">
-        <v>33985.25</v>
+        <v>22317.3125</v>
       </c>
       <c r="H5">
-        <v>0.03267577589734312</v>
+        <v>0.02076990409747899</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -585,25 +585,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>2030597169.749349</v>
+        <v>1473501464.502604</v>
       </c>
       <c r="C6">
-        <v>45062.14785992062</v>
+        <v>38386.21451123572</v>
       </c>
       <c r="D6">
-        <v>0.001925627445348473</v>
+        <v>0.001356334949822176</v>
       </c>
       <c r="E6">
-        <v>41994.55208333334</v>
+        <v>29847.95833333333</v>
       </c>
       <c r="F6">
-        <v>0.04105949593955819</v>
+        <v>0.02902799580835693</v>
       </c>
       <c r="G6">
-        <v>37153.875</v>
+        <v>19833.25</v>
       </c>
       <c r="H6">
-        <v>0.03687663548297519</v>
+        <v>0.01878817600900693</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -611,25 +611,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>3137947193.719141</v>
+        <v>1191673572.608724</v>
       </c>
       <c r="C7">
-        <v>56017.38296028422</v>
+        <v>34520.62532180904</v>
       </c>
       <c r="D7">
-        <v>0.002853208233991357</v>
+        <v>0.001093218552162426</v>
       </c>
       <c r="E7">
-        <v>47099.22276294925</v>
+        <v>27726.4375</v>
       </c>
       <c r="F7">
-        <v>0.04545352881145793</v>
+        <v>0.02678864103077311</v>
       </c>
       <c r="G7">
-        <v>46650.66164009715</v>
+        <v>21262.09375</v>
       </c>
       <c r="H7">
-        <v>0.04780189040288443</v>
+        <v>0.02160079415625916</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -637,25 +637,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>3128525404.134253</v>
+        <v>4255654727.107133</v>
       </c>
       <c r="C8">
-        <v>55933.22272258459</v>
+        <v>65235.37941260964</v>
       </c>
       <c r="D8">
-        <v>0.002874475778378163</v>
+        <v>0.003767893258830598</v>
       </c>
       <c r="E8">
-        <v>49875.94500000001</v>
+        <v>53936.78666666666</v>
       </c>
       <c r="F8">
-        <v>0.04824123936483781</v>
+        <v>0.05167399869160438</v>
       </c>
       <c r="G8">
-        <v>50288.60999999999</v>
+        <v>53065.26000000001</v>
       </c>
       <c r="H8">
-        <v>0.0490521099768812</v>
+        <v>0.05096663329910127</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -663,25 +663,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>3622205910.420681</v>
+        <v>4286599627.132569</v>
       </c>
       <c r="C9">
-        <v>60184.76477000372</v>
+        <v>65472.12862839094</v>
       </c>
       <c r="D9">
-        <v>0.003378652405384121</v>
+        <v>0.003848122775042618</v>
       </c>
       <c r="E9">
-        <v>54106.28475204601</v>
+        <v>56231.76973700479</v>
       </c>
       <c r="F9">
-        <v>0.05243778723416465</v>
+        <v>0.05402970406805391</v>
       </c>
       <c r="G9">
-        <v>56480.05292824563</v>
+        <v>51337.55147088057</v>
       </c>
       <c r="H9">
-        <v>0.05473574276392693</v>
+        <v>0.05015454161195362</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -689,25 +689,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>4138159941.459635</v>
+        <v>4887947971.289823</v>
       </c>
       <c r="C10">
-        <v>64328.53131744603</v>
+        <v>69913.86108126072</v>
       </c>
       <c r="D10">
-        <v>0.004002079388354327</v>
+        <v>0.004340414299251996</v>
       </c>
       <c r="E10">
-        <v>61994.59375</v>
+        <v>60238.75976033171</v>
       </c>
       <c r="F10">
-        <v>0.06092981363578821</v>
+        <v>0.05769175098681337</v>
       </c>
       <c r="G10">
-        <v>66175.40625</v>
+        <v>63533.30641205877</v>
       </c>
       <c r="H10">
-        <v>0.06580305534198524</v>
+        <v>0.06132470411624207</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -715,25 +715,25 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>15095060128.87012</v>
+        <v>90061182908.96452</v>
       </c>
       <c r="C11">
-        <v>122861.9555797079</v>
+        <v>300101.9541905126</v>
       </c>
       <c r="D11">
-        <v>0.0138828898113027</v>
+        <v>0.08396108830730788</v>
       </c>
       <c r="E11">
-        <v>99079.90104166667</v>
+        <v>283825.6614583333</v>
       </c>
       <c r="F11">
-        <v>0.0957077341186171</v>
+        <v>0.2745125480812876</v>
       </c>
       <c r="G11">
-        <v>73532.53125</v>
+        <v>297245.03125</v>
       </c>
       <c r="H11">
-        <v>0.07027658955699564</v>
+        <v>0.2863397660834747</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -741,25 +741,25 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>14512997448.20996</v>
+        <v>124503334496.0514</v>
       </c>
       <c r="C12">
-        <v>120469.9026653959</v>
+        <v>352850.3004052163</v>
       </c>
       <c r="D12">
-        <v>0.01336091774261529</v>
+        <v>0.1163633005413708</v>
       </c>
       <c r="E12">
-        <v>97993.140625</v>
+        <v>343333.1979166667</v>
       </c>
       <c r="F12">
-        <v>0.09471164931271292</v>
+        <v>0.3331801095110035</v>
       </c>
       <c r="G12">
-        <v>77304.59375</v>
+        <v>335599.71875</v>
       </c>
       <c r="H12">
-        <v>0.07388087172600373</v>
+        <v>0.3138786784386867</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -767,25 +767,25 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>23301614267.31934</v>
+        <v>161236254973.9936</v>
       </c>
       <c r="C13">
-        <v>152648.6628415701</v>
+        <v>401542.3451816677</v>
       </c>
       <c r="D13">
-        <v>0.02328244446286952</v>
+        <v>0.150995190234542</v>
       </c>
       <c r="E13">
-        <v>123561.5677083333</v>
+        <v>363853.7526041667</v>
       </c>
       <c r="F13">
-        <v>0.1222475862903285</v>
+        <v>0.3525216124877</v>
       </c>
       <c r="G13">
-        <v>114971.9375</v>
+        <v>359805.3125</v>
       </c>
       <c r="H13">
-        <v>0.1061055033828063</v>
+        <v>0.3572470858816343</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -793,25 +793,25 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>180975339385.9337</v>
+        <v>200287691421.8491</v>
       </c>
       <c r="C14">
-        <v>425411.9643192157</v>
+        <v>447535.1287014787</v>
       </c>
       <c r="D14">
-        <v>0.1726917533863124</v>
+        <v>0.190137281000862</v>
       </c>
       <c r="E14">
-        <v>417357.0182291667</v>
+        <v>444505.8177083333</v>
       </c>
       <c r="F14">
-        <v>0.4085233975447477</v>
+        <v>0.4331456648068705</v>
       </c>
       <c r="G14">
-        <v>397817.6875</v>
+        <v>459172.03125</v>
       </c>
       <c r="H14">
-        <v>0.3832450664881855</v>
+        <v>0.4448437826638653</v>
       </c>
     </row>
   </sheetData>
@@ -821,7 +821,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -879,757 +879,757 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="2">
-        <v>45017</v>
+        <v>45108</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1025955</v>
+        <v>954043</v>
       </c>
       <c r="D2">
-        <v>1010598.375</v>
+        <v>969565.75</v>
       </c>
       <c r="E2">
-        <v>996516.625</v>
+        <v>975984.25</v>
       </c>
       <c r="F2">
-        <v>994514.125</v>
+        <v>968835.625</v>
       </c>
       <c r="G2">
-        <v>969871.1875</v>
+        <v>953421.625</v>
       </c>
       <c r="H2">
-        <v>964616.375</v>
+        <v>1005416.125</v>
       </c>
       <c r="I2">
-        <v>1019144.09579373</v>
+        <v>974414.25</v>
       </c>
       <c r="J2">
-        <v>982032.3100000001</v>
+        <v>992754.16</v>
       </c>
       <c r="K2">
-        <v>961026.1738321673</v>
+        <v>986033.9372635405</v>
       </c>
       <c r="L2">
-        <v>936454.9375</v>
+        <v>1010328.067301798</v>
       </c>
       <c r="M2">
-        <v>968491.5625</v>
+        <v>970126.625</v>
       </c>
       <c r="N2">
-        <v>965592.4375</v>
+        <v>733761.1875</v>
       </c>
       <c r="O2">
-        <v>1068302.875</v>
+        <v>1017427.4375</v>
       </c>
       <c r="P2">
-        <v>634536.8125</v>
+        <v>633072.875</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="2">
-        <v>45047</v>
+        <v>45139</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1088042</v>
+        <v>1003070</v>
       </c>
       <c r="D3">
-        <v>1066069</v>
+        <v>999436.75</v>
       </c>
       <c r="E3">
-        <v>1030360.8125</v>
+        <v>1003946.125</v>
       </c>
       <c r="F3">
-        <v>1087286.25</v>
+        <v>993382</v>
       </c>
       <c r="G3">
-        <v>1077046.75</v>
+        <v>976919.0625</v>
       </c>
       <c r="H3">
-        <v>1055798.25</v>
+        <v>1012100.9375</v>
       </c>
       <c r="I3">
-        <v>986976.1237896769</v>
+        <v>996475.125</v>
       </c>
       <c r="J3">
-        <v>1004170.95</v>
+        <v>1006982.02</v>
       </c>
       <c r="K3">
-        <v>1014403.081666491</v>
+        <v>1022533.826217243</v>
       </c>
       <c r="L3">
-        <v>1048084</v>
+        <v>1011118.447489121</v>
       </c>
       <c r="M3">
-        <v>930989.375</v>
+        <v>706781.75</v>
       </c>
       <c r="N3">
-        <v>937942.625</v>
+        <v>545064</v>
       </c>
       <c r="O3">
-        <v>968819.625</v>
+        <v>790691</v>
       </c>
       <c r="P3">
-        <v>662100.5</v>
+        <v>521955.6875</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="2">
-        <v>45078</v>
+        <v>45170</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1006231</v>
+        <v>991399</v>
       </c>
       <c r="D4">
-        <v>986904.875</v>
+        <v>954865.3125</v>
       </c>
       <c r="E4">
-        <v>993850.0625</v>
+        <v>995217.0625</v>
       </c>
       <c r="F4">
-        <v>985658.5625</v>
+        <v>945634.125</v>
       </c>
       <c r="G4">
-        <v>953324.5625</v>
+        <v>921578.625</v>
       </c>
       <c r="H4">
-        <v>969380.625</v>
+        <v>951977.1875</v>
       </c>
       <c r="I4">
-        <v>995041.815572496</v>
+        <v>936138.125</v>
       </c>
       <c r="J4">
-        <v>977932.09</v>
+        <v>934934.24</v>
       </c>
       <c r="K4">
-        <v>965113.9466919318</v>
+        <v>938730.5127262223</v>
       </c>
       <c r="L4">
-        <v>961060</v>
+        <v>957016.603206009</v>
       </c>
       <c r="M4">
-        <v>850466.1875</v>
+        <v>606733.25</v>
       </c>
       <c r="N4">
-        <v>858350.125</v>
+        <v>604468.625</v>
       </c>
       <c r="O4">
-        <v>833503.1875</v>
+        <v>777776.3125</v>
       </c>
       <c r="P4">
-        <v>496013.6875</v>
+        <v>521682.71875</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="2">
-        <v>45108</v>
+        <v>45200</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>954043</v>
+        <v>1078780</v>
       </c>
       <c r="D5">
-        <v>934882.625</v>
+        <v>1077639.125</v>
       </c>
       <c r="E5">
-        <v>988761.125</v>
+        <v>1070402.75</v>
       </c>
       <c r="F5">
-        <v>973311.25</v>
+        <v>1036050.25</v>
       </c>
       <c r="G5">
-        <v>961380.5</v>
+        <v>1090157.75</v>
       </c>
       <c r="H5">
-        <v>978433.625</v>
+        <v>1060928.625</v>
       </c>
       <c r="I5">
-        <v>1004559.216510803</v>
+        <v>1049528.875</v>
       </c>
       <c r="J5">
-        <v>977356.55</v>
+        <v>1029114.24</v>
       </c>
       <c r="K5">
-        <v>968696.9926035411</v>
+        <v>1052459.955751009</v>
       </c>
       <c r="L5">
-        <v>911541.4375</v>
+        <v>1010585.183797172</v>
       </c>
       <c r="M5">
-        <v>979867.125</v>
+        <v>691767</v>
       </c>
       <c r="N5">
-        <v>977822.25</v>
+        <v>743835.875</v>
       </c>
       <c r="O5">
-        <v>942821.0625</v>
+        <v>863489.0625</v>
       </c>
       <c r="P5">
-        <v>606004.0625</v>
+        <v>647664.75</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="2">
-        <v>45139</v>
+        <v>45231</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1003070</v>
+        <v>1045942</v>
       </c>
       <c r="D6">
-        <v>968262.125</v>
+        <v>1042183.1875</v>
       </c>
       <c r="E6">
-        <v>988592.6875</v>
+        <v>1072497.625</v>
       </c>
       <c r="F6">
-        <v>970827</v>
+        <v>1038198.4375</v>
       </c>
       <c r="G6">
-        <v>969557.75</v>
+        <v>1047442.9375</v>
       </c>
       <c r="H6">
-        <v>974117.5</v>
+        <v>1036921.5</v>
       </c>
       <c r="I6">
-        <v>960284.8932306088</v>
+        <v>1042928.125</v>
       </c>
       <c r="J6">
-        <v>988842.71</v>
+        <v>965743.0600000001</v>
       </c>
       <c r="K6">
-        <v>979436.2008660382</v>
+        <v>971559.9023623322</v>
       </c>
       <c r="L6">
-        <v>936376.5</v>
+        <v>963665.4939846564</v>
       </c>
       <c r="M6">
-        <v>951157.8125</v>
+        <v>799938.625</v>
       </c>
       <c r="N6">
-        <v>950845.6875</v>
+        <v>747545.8125</v>
       </c>
       <c r="O6">
-        <v>861154.9375</v>
+        <v>814895.1875</v>
       </c>
       <c r="P6">
-        <v>616913.9375</v>
+        <v>660200.25</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="2">
-        <v>45170</v>
+        <v>45261</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>991399</v>
+        <v>1059829</v>
       </c>
       <c r="D7">
-        <v>966793.8125</v>
+        <v>1052397.125</v>
       </c>
       <c r="E7">
-        <v>960666.125</v>
+        <v>1086934.5</v>
       </c>
       <c r="F7">
-        <v>930880.6875</v>
+        <v>1060949.75</v>
       </c>
       <c r="G7">
-        <v>926356.8125</v>
+        <v>1045196.0625</v>
       </c>
       <c r="H7">
-        <v>953189.25</v>
+        <v>1039368.625</v>
       </c>
       <c r="I7">
-        <v>962760.7046613463</v>
+        <v>1049010.125</v>
       </c>
       <c r="J7">
-        <v>934744.47</v>
+        <v>1029990.04</v>
       </c>
       <c r="K7">
-        <v>933132.6435459321</v>
+        <v>1009822.384332017</v>
       </c>
       <c r="L7">
-        <v>924623.5</v>
+        <v>995876.8545017468</v>
       </c>
       <c r="M7">
-        <v>809784.375</v>
+        <v>761627.1875</v>
       </c>
       <c r="N7">
-        <v>810102.9375</v>
+        <v>723573.6875</v>
       </c>
       <c r="O7">
-        <v>647140.5625</v>
+        <v>693396.3125</v>
       </c>
       <c r="P7">
-        <v>439606.15625</v>
+        <v>578239.6875</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="2">
-        <v>45200</v>
+        <v>45292</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1078780</v>
+        <v>957778</v>
       </c>
       <c r="D8">
-        <v>1050938.5</v>
+        <v>951167.8125</v>
       </c>
       <c r="E8">
-        <v>1054288.125</v>
+        <v>982350.6875</v>
       </c>
       <c r="F8">
-        <v>1047548.125</v>
+        <v>974326.9375</v>
       </c>
       <c r="G8">
-        <v>1044321.75</v>
+        <v>925124.8125</v>
       </c>
       <c r="H8">
-        <v>1034334.375</v>
+        <v>992772.1875</v>
       </c>
       <c r="I8">
-        <v>1002394.726563486</v>
+        <v>941948</v>
       </c>
       <c r="J8">
-        <v>1001687.6</v>
+        <v>987414.46</v>
       </c>
       <c r="K8">
-        <v>1024086.250597577</v>
+        <v>983359.346582684</v>
       </c>
       <c r="L8">
-        <v>1002134.875</v>
+        <v>989707.3036728713</v>
       </c>
       <c r="M8">
-        <v>841754</v>
+        <v>735271.125</v>
       </c>
       <c r="N8">
-        <v>844166.4375</v>
+        <v>713628.0625</v>
       </c>
       <c r="O8">
-        <v>968058.5</v>
+        <v>604600.0625</v>
       </c>
       <c r="P8">
-        <v>532966.125</v>
+        <v>503902.0625</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="2">
-        <v>45231</v>
+        <v>45323</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1045942</v>
+        <v>1012952</v>
       </c>
       <c r="D9">
-        <v>1033947.9375</v>
+        <v>967421.625</v>
       </c>
       <c r="E9">
-        <v>1015072.875</v>
+        <v>1006887.9375</v>
       </c>
       <c r="F9">
-        <v>1013170.625</v>
+        <v>999451</v>
       </c>
       <c r="G9">
-        <v>1025192.375</v>
+        <v>1010280.375</v>
       </c>
       <c r="H9">
-        <v>1023893.25</v>
+        <v>958398.5625</v>
       </c>
       <c r="I9">
-        <v>959759.2023250284</v>
+        <v>968417.75</v>
       </c>
       <c r="J9">
-        <v>961985.75</v>
+        <v>937074.4</v>
       </c>
       <c r="K9">
-        <v>970391.1332748921</v>
+        <v>914009.7884662442</v>
       </c>
       <c r="L9">
-        <v>998298</v>
+        <v>949837.5326741356</v>
       </c>
       <c r="M9">
-        <v>885053.3125</v>
+        <v>729356.5625</v>
       </c>
       <c r="N9">
-        <v>895056.5</v>
+        <v>629082.75</v>
       </c>
       <c r="O9">
-        <v>1119168.375</v>
+        <v>415875.5625</v>
       </c>
       <c r="P9">
-        <v>566550</v>
+        <v>492815.21875</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="2">
-        <v>45261</v>
+        <v>45352</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1059829</v>
+        <v>1013909</v>
       </c>
       <c r="D10">
-        <v>1026096.125</v>
+        <v>993450.3125</v>
       </c>
       <c r="E10">
-        <v>1009031.625</v>
+        <v>1018762.8125</v>
       </c>
       <c r="F10">
-        <v>1042901.625</v>
+        <v>991227</v>
       </c>
       <c r="G10">
-        <v>1038001.25</v>
+        <v>978184.875</v>
       </c>
       <c r="H10">
-        <v>985389.8125</v>
+        <v>1002161.5</v>
       </c>
       <c r="I10">
-        <v>989954.1023513232</v>
+        <v>991756.0625</v>
       </c>
       <c r="J10">
-        <v>1001228.19</v>
+        <v>1007826.42</v>
       </c>
       <c r="K10">
-        <v>980187.4341511767</v>
+        <v>991825.6132637114</v>
       </c>
       <c r="L10">
-        <v>1014410.4375</v>
+        <v>1003623.542216704</v>
       </c>
       <c r="M10">
-        <v>970227.375</v>
+        <v>683462.25</v>
       </c>
       <c r="N10">
-        <v>965582.375</v>
+        <v>719972.0625</v>
       </c>
       <c r="O10">
-        <v>1031853.25</v>
+        <v>441297.46875</v>
       </c>
       <c r="P10">
-        <v>655611.8125</v>
+        <v>554760.9375</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="2">
-        <v>45292</v>
+        <v>45383</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>957778</v>
+        <v>1032523</v>
       </c>
       <c r="D11">
-        <v>901834.625</v>
+        <v>1023105.0625</v>
       </c>
       <c r="E11">
-        <v>988825.375</v>
+        <v>1065882.5</v>
       </c>
       <c r="F11">
-        <v>925411.8125</v>
+        <v>1048520.75</v>
       </c>
       <c r="G11">
-        <v>929486.375</v>
+        <v>1054688.5</v>
       </c>
       <c r="H11">
-        <v>922522.4375</v>
+        <v>1030764.25</v>
       </c>
       <c r="I11">
-        <v>968750.1544630737</v>
+        <v>1039052.125</v>
       </c>
       <c r="J11">
-        <v>978580.5699999999</v>
+        <v>974810.7</v>
       </c>
       <c r="K11">
-        <v>968977.7337935681</v>
+        <v>972388.8224104852</v>
       </c>
       <c r="L11">
-        <v>891387.3125</v>
+        <v>952542.7065325079</v>
       </c>
       <c r="M11">
-        <v>999194.5625</v>
+        <v>798889.625</v>
       </c>
       <c r="N11">
-        <v>1006392.875</v>
+        <v>778087.8125</v>
       </c>
       <c r="O11">
-        <v>755977.6875</v>
+        <v>532559.125</v>
       </c>
       <c r="P11">
-        <v>649467.3125</v>
+        <v>640325.875</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="2">
-        <v>45323</v>
+        <v>45413</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>1012952</v>
+        <v>1119399</v>
       </c>
       <c r="D12">
-        <v>981461.875</v>
+        <v>1087974.25</v>
       </c>
       <c r="E12">
-        <v>966734.375</v>
+        <v>1107448.375</v>
       </c>
       <c r="F12">
-        <v>935828.3125</v>
+        <v>1090009.25</v>
       </c>
       <c r="G12">
-        <v>972729.5</v>
+        <v>1096929.875</v>
       </c>
       <c r="H12">
-        <v>944649.5</v>
+        <v>1030641.625</v>
       </c>
       <c r="I12">
-        <v>956136.9311794674</v>
+        <v>1056080.375</v>
       </c>
       <c r="J12">
-        <v>935022.33</v>
+        <v>974037.46</v>
       </c>
       <c r="K12">
-        <v>911905.6884811443</v>
+        <v>987692.6309751894</v>
       </c>
       <c r="L12">
-        <v>946991.875</v>
+        <v>975224.2415031742</v>
       </c>
       <c r="M12">
-        <v>1040245.75</v>
+        <v>793305</v>
       </c>
       <c r="N12">
-        <v>1042830.5</v>
+        <v>646532.5</v>
       </c>
       <c r="O12">
-        <v>832205.125</v>
+        <v>648164.25</v>
       </c>
       <c r="P12">
-        <v>680365.75</v>
+        <v>640130.125</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="2">
-        <v>45352</v>
+        <v>45444</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>1013909</v>
+        <v>1051181</v>
       </c>
       <c r="D13">
-        <v>965369.8125</v>
+        <v>1010685.75</v>
       </c>
       <c r="E13">
-        <v>985561.6875</v>
+        <v>1025542.3125</v>
       </c>
       <c r="F13">
-        <v>970701.375</v>
+        <v>1027226.375</v>
       </c>
       <c r="G13">
-        <v>953568.0625</v>
+        <v>1013437.5625</v>
       </c>
       <c r="H13">
-        <v>976451.625</v>
+        <v>1031974.875</v>
       </c>
       <c r="I13">
-        <v>989954.1023513232</v>
+        <v>996139.5625</v>
       </c>
       <c r="J13">
-        <v>984067.38</v>
+        <v>977401.64</v>
       </c>
       <c r="K13">
-        <v>963004.756265207</v>
+        <v>969679.2629321995</v>
       </c>
       <c r="L13">
-        <v>922632</v>
+        <v>970939.5429237044</v>
       </c>
       <c r="M13">
-        <v>1010808.625</v>
+        <v>669805.3125</v>
       </c>
       <c r="N13">
-        <v>1015945.1875</v>
+        <v>615254.25</v>
       </c>
       <c r="O13">
-        <v>957334.5</v>
+        <v>481157.0625</v>
       </c>
       <c r="P13">
-        <v>689509.625</v>
+        <v>591985</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="2">
-        <v>45383</v>
+        <v>45474</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>1032523</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>1018040</v>
+        <v>1010774</v>
       </c>
       <c r="E14">
-        <v>1015987.25</v>
+        <v>1010655.9375</v>
       </c>
       <c r="F14">
-        <v>1022722.5</v>
+        <v>1005082.125</v>
       </c>
       <c r="G14">
-        <v>1003649.125</v>
+        <v>979522.125</v>
       </c>
       <c r="H14">
-        <v>1012989.3125</v>
+        <v>1018568.625</v>
       </c>
       <c r="I14">
-        <v>946642.4549290866</v>
+        <v>1018685.1875</v>
       </c>
       <c r="J14">
-        <v>970694.75</v>
+        <v>970112.86</v>
       </c>
       <c r="K14">
-        <v>971074.2764720524</v>
+        <v>976304.0407485908</v>
       </c>
       <c r="L14">
-        <v>986347.625</v>
+        <v>964145.41179738</v>
       </c>
       <c r="M14">
-        <v>944261.5625</v>
+        <v>694844.1875</v>
       </c>
       <c r="N14">
-        <v>939590.5</v>
+        <v>665138.4375</v>
       </c>
       <c r="O14">
-        <v>926119.875</v>
+        <v>589309.4375</v>
       </c>
       <c r="P14">
-        <v>599099.5</v>
+        <v>580844.5625</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="2">
-        <v>45413</v>
+        <v>45505</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
-        <v>1119399</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>1053434</v>
+        <v>1000212.125</v>
       </c>
       <c r="E15">
-        <v>1016864.125</v>
+        <v>1017225.8125</v>
       </c>
       <c r="F15">
-        <v>1084444.75</v>
+        <v>1006717.375</v>
       </c>
       <c r="G15">
-        <v>1066102.375</v>
+        <v>996636.5625</v>
       </c>
       <c r="H15">
-        <v>1018562.375</v>
+        <v>1029751.375</v>
       </c>
       <c r="I15">
-        <v>975267.6576954183</v>
+        <v>1003842.75</v>
       </c>
       <c r="J15">
-        <v>970200.8</v>
+        <v>975745.48</v>
       </c>
       <c r="K15">
-        <v>976840.747662528</v>
+        <v>982957.7097440306</v>
       </c>
       <c r="L15">
-        <v>1015536.3125</v>
+        <v>958860.3759585507</v>
       </c>
       <c r="M15">
-        <v>959509.5</v>
+        <v>705579.875</v>
       </c>
       <c r="N15">
-        <v>947817.1875</v>
+        <v>733252.625</v>
       </c>
       <c r="O15">
-        <v>951450.3125</v>
+        <v>403704</v>
       </c>
       <c r="P15">
-        <v>645721.875</v>
+        <v>581946.875</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="2">
-        <v>45444</v>
+        <v>45536</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>1051181</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>952871.5</v>
+        <v>1040659.125</v>
       </c>
       <c r="E16">
-        <v>1018910</v>
+        <v>1073833.375</v>
       </c>
       <c r="F16">
-        <v>957786.5625</v>
+        <v>1049236.25</v>
       </c>
       <c r="G16">
-        <v>955100.25</v>
+        <v>1049150.75</v>
       </c>
       <c r="H16">
-        <v>923731.25</v>
+        <v>996805.875</v>
       </c>
       <c r="I16">
-        <v>964396.8266101757</v>
+        <v>1041493.5</v>
       </c>
       <c r="J16">
-        <v>976659.8</v>
+        <v>971580.62</v>
       </c>
       <c r="K16">
-        <v>967292.9094201304</v>
+        <v>937353.2238784235</v>
       </c>
       <c r="L16">
-        <v>971457.625</v>
+        <v>976836.9627510225</v>
       </c>
       <c r="M16">
-        <v>997877.625</v>
+        <v>795782.875</v>
       </c>
       <c r="N16">
-        <v>1006303.375</v>
+        <v>783008.25</v>
       </c>
       <c r="O16">
-        <v>857953.625</v>
+        <v>476021</v>
       </c>
       <c r="P16">
-        <v>694224.1875</v>
+        <v>625527.5625</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="2">
-        <v>45474</v>
+        <v>45566</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1638,48 +1638,48 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>959832.3125</v>
+        <v>1094079.25</v>
       </c>
       <c r="E17">
-        <v>955269.3125</v>
+        <v>1093821.125</v>
       </c>
       <c r="F17">
-        <v>956885.9375</v>
+        <v>1120540.25</v>
       </c>
       <c r="G17">
-        <v>960173.3125</v>
+        <v>1087225.375</v>
       </c>
       <c r="H17">
-        <v>963699.5</v>
+        <v>1031025.25</v>
       </c>
       <c r="I17">
-        <v>952690.5825000972</v>
+        <v>1103272.875</v>
       </c>
       <c r="J17">
-        <v>965238.99</v>
+        <v>971471.91</v>
       </c>
       <c r="K17">
-        <v>958414.5354056014</v>
+        <v>994170.5738176126</v>
       </c>
       <c r="L17">
-        <v>932802.125</v>
+        <v>961923.8195117296</v>
       </c>
       <c r="M17">
-        <v>1106370.75</v>
+        <v>844650.875</v>
       </c>
       <c r="N17">
-        <v>1108283.5</v>
+        <v>820984.625</v>
       </c>
       <c r="O17">
-        <v>727068.75</v>
+        <v>385583.625</v>
       </c>
       <c r="P17">
-        <v>773729.75</v>
+        <v>697525.875</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="2">
-        <v>45505</v>
+        <v>45597</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1688,48 +1688,48 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>946454.75</v>
+        <v>1078903.375</v>
       </c>
       <c r="E18">
-        <v>1017486.9375</v>
+        <v>1075867.75</v>
       </c>
       <c r="F18">
-        <v>930686.875</v>
+        <v>1072452</v>
       </c>
       <c r="G18">
-        <v>981725.6875</v>
+        <v>1093497.125</v>
       </c>
       <c r="H18">
-        <v>953587.9375</v>
+        <v>1031079.375</v>
       </c>
       <c r="I18">
-        <v>957008.8069730737</v>
+        <v>1069879</v>
       </c>
       <c r="J18">
-        <v>977135.3</v>
+        <v>977635.08</v>
       </c>
       <c r="K18">
-        <v>973147.7051043953</v>
+        <v>995881.6337415207</v>
       </c>
       <c r="L18">
-        <v>929376.5</v>
+        <v>991217.8655728092</v>
       </c>
       <c r="M18">
-        <v>1138084</v>
+        <v>869600</v>
       </c>
       <c r="N18">
-        <v>1150059</v>
+        <v>805475.25</v>
       </c>
       <c r="O18">
-        <v>810798.875</v>
+        <v>616387.5</v>
       </c>
       <c r="P18">
-        <v>796989.9375</v>
+        <v>725924.75</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="2">
-        <v>45536</v>
+        <v>45627</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1738,48 +1738,48 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>995596</v>
+        <v>1098252.375</v>
       </c>
       <c r="E19">
-        <v>935218.125</v>
+        <v>1051252.625</v>
       </c>
       <c r="F19">
-        <v>961318.75</v>
+        <v>1065581</v>
       </c>
       <c r="G19">
-        <v>1014793.3125</v>
+        <v>1052031.875</v>
       </c>
       <c r="H19">
-        <v>1029720.625</v>
+        <v>1030581.5</v>
       </c>
       <c r="I19">
-        <v>978266.7356065987</v>
+        <v>1091945</v>
       </c>
       <c r="J19">
-        <v>965920.58</v>
+        <v>972981.13</v>
       </c>
       <c r="K19">
-        <v>931557.2192339101</v>
+        <v>982247.7789266078</v>
       </c>
       <c r="L19">
-        <v>1004684.5625</v>
+        <v>945559.9539671062</v>
       </c>
       <c r="M19">
-        <v>1067442.375</v>
+        <v>861642.8125</v>
       </c>
       <c r="N19">
-        <v>1079652.875</v>
+        <v>724730.875</v>
       </c>
       <c r="O19">
-        <v>694666.75</v>
+        <v>575052</v>
       </c>
       <c r="P19">
-        <v>715239.4375</v>
+        <v>691254.5</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="2">
-        <v>45566</v>
+        <v>45658</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1788,48 +1788,48 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1029287.4375</v>
+        <v>889700.75</v>
       </c>
       <c r="E20">
-        <v>1015160.4375</v>
+        <v>891828</v>
       </c>
       <c r="F20">
-        <v>1012620.5</v>
+        <v>912153.3125</v>
       </c>
       <c r="G20">
-        <v>1068029.375</v>
+        <v>938304.25</v>
       </c>
       <c r="H20">
-        <v>1045107.6875</v>
+        <v>924618.125</v>
       </c>
       <c r="I20">
-        <v>959578.0557662962</v>
+        <v>898384.5</v>
       </c>
       <c r="J20">
-        <v>966262.8199999999</v>
+        <v>942578.49</v>
       </c>
       <c r="K20">
-        <v>983301.3912972669</v>
+        <v>897514.5604661088</v>
       </c>
       <c r="L20">
-        <v>999163</v>
+        <v>975224.2415031742</v>
       </c>
       <c r="M20">
-        <v>999288.75</v>
+        <v>770265</v>
       </c>
       <c r="N20">
-        <v>997102.375</v>
+        <v>711767.125</v>
       </c>
       <c r="O20">
-        <v>903782.4375</v>
+        <v>386622.625</v>
       </c>
       <c r="P20">
-        <v>693447.125</v>
+        <v>605667.875</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="2">
-        <v>45597</v>
+        <v>45689</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1838,48 +1838,48 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1032737.625</v>
+        <v>1003945.3125</v>
       </c>
       <c r="E21">
-        <v>1024371.125</v>
+        <v>1027873.5</v>
       </c>
       <c r="F21">
-        <v>1009115.3125</v>
+        <v>1029783.375</v>
       </c>
       <c r="G21">
-        <v>1040221.3125</v>
+        <v>1018869.75</v>
       </c>
       <c r="H21">
-        <v>995997.5625</v>
+        <v>1025112.75</v>
       </c>
       <c r="I21">
-        <v>988499.1068314093</v>
+        <v>1036974.125</v>
       </c>
       <c r="J21">
-        <v>971355.74</v>
+        <v>971152.1800000001</v>
       </c>
       <c r="K21">
-        <v>983221.3127707142</v>
+        <v>954228.5997793542</v>
       </c>
       <c r="L21">
-        <v>1042028.9375</v>
+        <v>989525.0007539782</v>
       </c>
       <c r="M21">
-        <v>934215.625</v>
+        <v>764756.0625</v>
       </c>
       <c r="N21">
-        <v>937177.375</v>
+        <v>732879.5</v>
       </c>
       <c r="O21">
-        <v>805818.75</v>
+        <v>342484.71875</v>
       </c>
       <c r="P21">
-        <v>626338.1875</v>
+        <v>551850.875</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="2">
-        <v>45627</v>
+        <v>45717</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1888,48 +1888,48 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1005050.5</v>
+        <v>951089.125</v>
       </c>
       <c r="E22">
-        <v>1015608.125</v>
+        <v>913713.125</v>
       </c>
       <c r="F22">
-        <v>1010920.125</v>
+        <v>952597.125</v>
       </c>
       <c r="G22">
-        <v>1040900.375</v>
+        <v>956830.6875</v>
       </c>
       <c r="H22">
-        <v>1036542.375</v>
+        <v>955701</v>
       </c>
       <c r="I22">
-        <v>941319.2050439516</v>
+        <v>957504.4375</v>
       </c>
       <c r="J22">
-        <v>968878.6</v>
+        <v>953856.05</v>
       </c>
       <c r="K22">
-        <v>974926.5754140154</v>
+        <v>945101.3459674427</v>
       </c>
       <c r="L22">
-        <v>998299.4375</v>
+        <v>975224.2415031742</v>
       </c>
       <c r="M22">
-        <v>997991.125</v>
+        <v>797154.625</v>
       </c>
       <c r="N22">
-        <v>1009266.4375</v>
+        <v>842067.8125</v>
       </c>
       <c r="O22">
-        <v>910117.6875</v>
+        <v>392399.65625</v>
       </c>
       <c r="P22">
-        <v>712904.625</v>
+        <v>597975.8125</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="2">
-        <v>45658</v>
+        <v>45748</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1938,48 +1938,48 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>881744.75</v>
+        <v>1047964.25</v>
       </c>
       <c r="E23">
-        <v>912565.125</v>
+        <v>1024683.6875</v>
       </c>
       <c r="F23">
-        <v>866253.4375</v>
+        <v>1035772.375</v>
       </c>
       <c r="G23">
-        <v>886840.0625</v>
+        <v>1051474.25</v>
       </c>
       <c r="H23">
-        <v>913565.5</v>
+        <v>1033491.5</v>
       </c>
       <c r="I23">
-        <v>975267.6576954183</v>
+        <v>1040096</v>
       </c>
       <c r="J23">
-        <v>941541.84</v>
+        <v>974676.3100000001</v>
       </c>
       <c r="K23">
-        <v>883937.0966111702</v>
+        <v>979273.5998905932</v>
       </c>
       <c r="L23">
-        <v>922948.75</v>
+        <v>976224.5787625336</v>
       </c>
       <c r="M23">
-        <v>1151017.75</v>
+        <v>900071.75</v>
       </c>
       <c r="N23">
-        <v>1172815.125</v>
+        <v>926111.125</v>
       </c>
       <c r="O23">
-        <v>755426.875</v>
+        <v>502121.8125</v>
       </c>
       <c r="P23">
-        <v>864390.625</v>
+        <v>709755.375</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="2">
-        <v>45689</v>
+        <v>45778</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1988,48 +1988,48 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1011574.0625</v>
+        <v>1040124.8125</v>
       </c>
       <c r="E24">
-        <v>988715.5625</v>
+        <v>1050633.375</v>
       </c>
       <c r="F24">
-        <v>987099.3125</v>
+        <v>1051345.75</v>
       </c>
       <c r="G24">
-        <v>1004929.4375</v>
+        <v>1047924.75</v>
       </c>
       <c r="H24">
-        <v>983986.1875</v>
+        <v>995831.875</v>
       </c>
       <c r="I24">
-        <v>986434.3370794423</v>
+        <v>1045524.75</v>
       </c>
       <c r="J24">
-        <v>967336.2</v>
+        <v>974333.61</v>
       </c>
       <c r="K24">
-        <v>944923.0825224177</v>
+        <v>969588.4320538363</v>
       </c>
       <c r="L24">
-        <v>995742.375</v>
+        <v>975224.2415031742</v>
       </c>
       <c r="M24">
-        <v>1291605.625</v>
+        <v>983437.4375</v>
       </c>
       <c r="N24">
-        <v>1296496.375</v>
+        <v>895901.1875</v>
       </c>
       <c r="O24">
-        <v>966654.5625</v>
+        <v>472453.5625</v>
       </c>
       <c r="P24">
-        <v>1009138.125</v>
+        <v>757173</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="2">
-        <v>45717</v>
+        <v>45809</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2038,48 +2038,48 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>945329.5</v>
+        <v>1013949</v>
       </c>
       <c r="E25">
-        <v>946786.5625</v>
+        <v>1024515.9375</v>
       </c>
       <c r="F25">
-        <v>887368.875</v>
+        <v>1042831.6875</v>
       </c>
       <c r="G25">
-        <v>907691.8125</v>
+        <v>1034192.625</v>
       </c>
       <c r="H25">
-        <v>925594.875</v>
+        <v>1034546.25</v>
       </c>
       <c r="I25">
-        <v>975267.6576954183</v>
+        <v>1022151.75</v>
       </c>
       <c r="J25">
-        <v>953569.22</v>
+        <v>975682.59</v>
       </c>
       <c r="K25">
-        <v>936853.7485187857</v>
+        <v>977918.1500885838</v>
       </c>
       <c r="L25">
-        <v>934779.125</v>
+        <v>952542.7065325079</v>
       </c>
       <c r="M25">
-        <v>1253819.625</v>
+        <v>946784.625</v>
       </c>
       <c r="N25">
-        <v>1256427</v>
+        <v>832855.75</v>
       </c>
       <c r="O25">
-        <v>969091.5</v>
+        <v>629444.375</v>
       </c>
       <c r="P25">
-        <v>937989.125</v>
+        <v>720202.625</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="2">
-        <v>45748</v>
+        <v>45839</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2088,48 +2088,48 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>995586.5</v>
+        <v>1002492.5625</v>
       </c>
       <c r="E26">
-        <v>1017117.375</v>
+        <v>955540.5625</v>
       </c>
       <c r="F26">
-        <v>957821.8125</v>
+        <v>1002813.625</v>
       </c>
       <c r="G26">
-        <v>969579.5625</v>
+        <v>981955</v>
       </c>
       <c r="H26">
-        <v>983722.625</v>
+        <v>1018568.625</v>
       </c>
       <c r="I26">
-        <v>964452.2006266234</v>
+        <v>1009422.625</v>
       </c>
       <c r="J26">
-        <v>971178.88</v>
+        <v>970112.86</v>
       </c>
       <c r="K26">
-        <v>973890.6755663101</v>
+        <v>976304.0407485908</v>
       </c>
       <c r="L26">
-        <v>989686.1875</v>
+        <v>964145.41179738</v>
       </c>
       <c r="M26">
-        <v>1252845</v>
+        <v>878194.0625</v>
       </c>
       <c r="N26">
-        <v>1250232.375</v>
+        <v>765305.0625</v>
       </c>
       <c r="O26">
-        <v>1031568.4375</v>
+        <v>447805.1875</v>
       </c>
       <c r="P26">
-        <v>951186.4375</v>
+        <v>648014.25</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="2">
-        <v>45778</v>
+        <v>45870</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2138,48 +2138,48 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>984804.625</v>
+        <v>1004848.25</v>
       </c>
       <c r="E27">
-        <v>934878.6875</v>
+        <v>987641.375</v>
       </c>
       <c r="F27">
-        <v>942905.5625</v>
+        <v>997927.875</v>
       </c>
       <c r="G27">
-        <v>1014407</v>
+        <v>999045.625</v>
       </c>
       <c r="H27">
-        <v>993717.4375</v>
+        <v>1029751.375</v>
       </c>
       <c r="I27">
-        <v>975267.6576954183</v>
+        <v>983137.625</v>
       </c>
       <c r="J27">
-        <v>967889.46</v>
+        <v>975745.48</v>
       </c>
       <c r="K27">
-        <v>964133.6503646953</v>
+        <v>982957.7097440306</v>
       </c>
       <c r="L27">
-        <v>1010333.5</v>
+        <v>958860.3759585507</v>
       </c>
       <c r="M27">
-        <v>1243842</v>
+        <v>815663.625</v>
       </c>
       <c r="N27">
-        <v>1253155.625</v>
+        <v>775686.5625</v>
       </c>
       <c r="O27">
-        <v>997263.9375</v>
+        <v>648023.25</v>
       </c>
       <c r="P27">
-        <v>993049.9375</v>
+        <v>695394.4375</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="2">
-        <v>45809</v>
+        <v>45901</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2188,48 +2188,48 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>987885.875</v>
+        <v>1075859.25</v>
       </c>
       <c r="E28">
-        <v>1016105.4375</v>
+        <v>1064940.125</v>
       </c>
       <c r="F28">
-        <v>958738.4375</v>
+        <v>1085061</v>
       </c>
       <c r="G28">
-        <v>976251.125</v>
+        <v>1053599.875</v>
       </c>
       <c r="H28">
-        <v>976129.9375</v>
+        <v>1033491.5</v>
       </c>
       <c r="I28">
-        <v>946642.4549290866</v>
+        <v>1072810.75</v>
       </c>
       <c r="J28">
-        <v>972496.5600000001</v>
+        <v>974676.3100000001</v>
       </c>
       <c r="K28">
-        <v>973158.9210596469</v>
+        <v>979273.5998905932</v>
       </c>
       <c r="L28">
-        <v>992263.0625</v>
+        <v>976224.5787625336</v>
       </c>
       <c r="M28">
-        <v>1303894.875</v>
+        <v>892697.5</v>
       </c>
       <c r="N28">
-        <v>1315019.5</v>
+        <v>923962.875</v>
       </c>
       <c r="O28">
-        <v>1107617.75</v>
+        <v>632204.125</v>
       </c>
       <c r="P28">
-        <v>978666.1875</v>
+        <v>853153.125</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="2">
-        <v>45839</v>
+        <v>45931</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2238,48 +2238,48 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>962008.625</v>
+        <v>1044326.5</v>
       </c>
       <c r="E29">
-        <v>955269.3125</v>
+        <v>1062212.875</v>
       </c>
       <c r="F29">
-        <v>933439.3125</v>
+        <v>1062709.375</v>
       </c>
       <c r="G29">
-        <v>943185.75</v>
+        <v>1059431.75</v>
       </c>
       <c r="H29">
-        <v>960179.5</v>
+        <v>989515.25</v>
       </c>
       <c r="I29">
-        <v>952690.5825000972</v>
+        <v>1062964</v>
       </c>
       <c r="J29">
-        <v>965238.99</v>
+        <v>964496.66</v>
       </c>
       <c r="K29">
-        <v>958414.5354056014</v>
+        <v>924318.2466102204</v>
       </c>
       <c r="L29">
-        <v>942604.125</v>
+        <v>975224.2415031742</v>
       </c>
       <c r="M29">
-        <v>1369545.625</v>
+        <v>1047300.375</v>
       </c>
       <c r="N29">
-        <v>1367932.125</v>
+        <v>1073948</v>
       </c>
       <c r="O29">
-        <v>1124319.75</v>
+        <v>882297.1875</v>
       </c>
       <c r="P29">
-        <v>1084353.875</v>
+        <v>967234.1875</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="2">
-        <v>45870</v>
+        <v>45962</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2288,48 +2288,48 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>938490.8125</v>
+        <v>1068483</v>
       </c>
       <c r="E30">
-        <v>1017486.9375</v>
+        <v>1052426.25</v>
       </c>
       <c r="F30">
-        <v>917086.6875</v>
+        <v>1051842</v>
       </c>
       <c r="G30">
-        <v>953496.3125</v>
+        <v>1041799</v>
       </c>
       <c r="H30">
-        <v>950041.6875</v>
+        <v>1031079.375</v>
       </c>
       <c r="I30">
-        <v>957008.8069730737</v>
+        <v>1007103.125</v>
       </c>
       <c r="J30">
-        <v>977135.3</v>
+        <v>977635.08</v>
       </c>
       <c r="K30">
-        <v>973147.7051043953</v>
+        <v>995881.6337415207</v>
       </c>
       <c r="L30">
-        <v>965847.75</v>
+        <v>991217.8655728092</v>
       </c>
       <c r="M30">
-        <v>1312196.75</v>
+        <v>1143494.625</v>
       </c>
       <c r="N30">
-        <v>1333130.875</v>
+        <v>1057367</v>
       </c>
       <c r="O30">
-        <v>994603.125</v>
+        <v>863261.9375</v>
       </c>
       <c r="P30">
-        <v>1016760.25</v>
+        <v>960312.6875</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="2">
-        <v>45901</v>
+        <v>45992</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2338,193 +2338,43 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>1023858.25</v>
+        <v>1084820.25</v>
       </c>
       <c r="E31">
-        <v>1017117.375</v>
+        <v>1041180.6875</v>
       </c>
       <c r="F31">
-        <v>982762.875</v>
+        <v>1061256</v>
       </c>
       <c r="G31">
-        <v>1020610.4375</v>
+        <v>1059117.75</v>
       </c>
       <c r="H31">
-        <v>1054984.5</v>
+        <v>1030413.125</v>
       </c>
       <c r="I31">
-        <v>964452.2006266234</v>
+        <v>1056382.5</v>
       </c>
       <c r="J31">
-        <v>967656.72</v>
+        <v>970519.38</v>
       </c>
       <c r="K31">
-        <v>973890.6755663101</v>
+        <v>976194.5017047971</v>
       </c>
       <c r="L31">
-        <v>992621.75</v>
+        <v>940463.5395673543</v>
       </c>
       <c r="M31">
-        <v>1320464</v>
+        <v>1098546.25</v>
       </c>
       <c r="N31">
-        <v>1329241.5</v>
+        <v>1030653</v>
       </c>
       <c r="O31">
-        <v>798075.8125</v>
+        <v>801658.6875</v>
       </c>
       <c r="P31">
-        <v>1010231.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="2">
-        <v>45931</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>1061554.125</v>
-      </c>
-      <c r="E32">
-        <v>934712.0625</v>
-      </c>
-      <c r="F32">
-        <v>993600.25</v>
-      </c>
-      <c r="G32">
-        <v>1038281.6875</v>
-      </c>
-      <c r="H32">
-        <v>1067729.75</v>
-      </c>
-      <c r="I32">
-        <v>975267.6576954183</v>
-      </c>
-      <c r="J32">
-        <v>959683.6</v>
-      </c>
-      <c r="K32">
-        <v>910960.0238109361</v>
-      </c>
-      <c r="L32">
-        <v>1060117.75</v>
-      </c>
-      <c r="M32">
-        <v>1281303.375</v>
-      </c>
-      <c r="N32">
-        <v>1304852.375</v>
-      </c>
-      <c r="O32">
-        <v>753430.0625</v>
-      </c>
-      <c r="P32">
-        <v>1016284.4375</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="2">
-        <v>45962</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>1007803.875</v>
-      </c>
-      <c r="E33">
-        <v>1024371.125</v>
-      </c>
-      <c r="F33">
-        <v>987166.25</v>
-      </c>
-      <c r="G33">
-        <v>1011890.75</v>
-      </c>
-      <c r="H33">
-        <v>960324.25</v>
-      </c>
-      <c r="I33">
-        <v>988499.1068314093</v>
-      </c>
-      <c r="J33">
-        <v>971355.74</v>
-      </c>
-      <c r="K33">
-        <v>983221.3127707142</v>
-      </c>
-      <c r="L33">
-        <v>1013280.75</v>
-      </c>
-      <c r="M33">
-        <v>1257934.75</v>
-      </c>
-      <c r="N33">
-        <v>1275451.625</v>
-      </c>
-      <c r="O33">
-        <v>963200.125</v>
-      </c>
-      <c r="P33">
-        <v>945980.5625</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="2">
-        <v>45992</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>1007657.5</v>
-      </c>
-      <c r="E34">
-        <v>1016565</v>
-      </c>
-      <c r="F34">
-        <v>975274.5625</v>
-      </c>
-      <c r="G34">
-        <v>1003297.375</v>
-      </c>
-      <c r="H34">
-        <v>1036064.9375</v>
-      </c>
-      <c r="I34">
-        <v>928588.3022788636</v>
-      </c>
-      <c r="J34">
-        <v>965966.42</v>
-      </c>
-      <c r="K34">
-        <v>960849.1226859852</v>
-      </c>
-      <c r="L34">
-        <v>1007737.875</v>
-      </c>
-      <c r="M34">
-        <v>1286857</v>
-      </c>
-      <c r="N34">
-        <v>1297832</v>
-      </c>
-      <c r="O34">
-        <v>1030423.375</v>
-      </c>
-      <c r="P34">
-        <v>960669.625</v>
+        <v>980912.625</v>
       </c>
     </row>
   </sheetData>
